--- a/shortcuts.xlsx
+++ b/shortcuts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>P1+</t>
   </si>
@@ -44,36 +44,6 @@
     <t>P2-</t>
   </si>
   <si>
-    <t>CoupT</t>
-  </si>
-  <si>
-    <t>PartieT</t>
-  </si>
-  <si>
-    <t>PSC0</t>
-  </si>
-  <si>
-    <t>TchCtrl</t>
-  </si>
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>Reg</t>
-  </si>
-  <si>
-    <t>Z+</t>
-  </si>
-  <si>
-    <t>Z-</t>
-  </si>
-  <si>
-    <t>PgRload</t>
-  </si>
-  <si>
-    <t>SkipSplash</t>
-  </si>
-  <si>
     <t>Gamepad</t>
   </si>
   <si>
@@ -137,15 +107,9 @@
     <t>u</t>
   </si>
   <si>
-    <t>6+7</t>
-  </si>
-  <si>
     <t>Function</t>
   </si>
   <si>
-    <t>Abbr</t>
-  </si>
-  <si>
     <t>() =&gt; document.getElementById("p1plus").click()</t>
   </si>
   <si>
@@ -200,19 +164,64 @@
     <t>toggleVisibility</t>
   </si>
   <si>
-    <t>PausePlay</t>
-  </si>
-  <si>
-    <t>SwTimer</t>
-  </si>
-  <si>
     <t>toggleFullscreen</t>
   </si>
   <si>
     <t>f</t>
   </si>
   <si>
-    <t>FullScreen</t>
+    <t>P1P2 zéro</t>
+  </si>
+  <si>
+    <t>Coup suivant</t>
+  </si>
+  <si>
+    <t>Pause Reprendre</t>
+  </si>
+  <si>
+    <t>Nouvelle partie</t>
+  </si>
+  <si>
+    <t>Afficher minuteur</t>
+  </si>
+  <si>
+    <t>Réglages</t>
+  </si>
+  <si>
+    <t>Instructions</t>
+  </si>
+  <si>
+    <t>Afficher boutons</t>
+  </si>
+  <si>
+    <t>Agrandir</t>
+  </si>
+  <si>
+    <t>Réduire</t>
+  </si>
+  <si>
+    <t>Recharger page</t>
+  </si>
+  <si>
+    <t>Passer accueil</t>
+  </si>
+  <si>
+    <t>Plein écran</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>5-LP</t>
+  </si>
+  <si>
+    <t>13-LP</t>
+  </si>
+  <si>
+    <t>11-LP</t>
+  </si>
+  <si>
+    <t>9-LP</t>
   </si>
 </sst>
 </file>
@@ -616,34 +625,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
     <col min="5" max="5" width="48.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -657,10 +666,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,309 +681,287 @@
         <v>6</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>48</v>
+      </c>
+      <c r="B6" s="4">
+        <v>2</v>
+      </c>
       <c r="C6" s="4">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="4">
         <v>7</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4">
-        <v>6</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4">
-        <v>2</v>
-      </c>
-      <c r="C8" s="4">
-        <v>10</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="B10" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B11" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>13</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4">
         <v>9</v>
       </c>
-      <c r="C12" s="4">
-        <v>2</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="3" t="s">
+      <c r="D13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="4">
-        <v>5</v>
-      </c>
-      <c r="C13" s="4">
-        <v>13</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>10</v>
+      <c r="A16" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="4"/>
+      <c r="A17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7" t="s">
+        <v>60</v>
+      </c>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="4"/>
+      <c r="A19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
       <c r="C19" s="4">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4">
-        <v>15</v>
+      <c r="A20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="4">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4">
-        <v>11</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
         <v>37</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/shortcuts.xlsx
+++ b/shortcuts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
   <si>
     <t>P1+</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>9-LP</t>
+  </si>
+  <si>
+    <t>2-LP</t>
+  </si>
+  <si>
+    <t>0-LP</t>
+  </si>
+  <si>
+    <t>8-LP</t>
   </si>
 </sst>
 </file>
@@ -628,7 +637,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -842,7 +851,9 @@
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="C13" s="4">
         <v>9</v>
       </c>
@@ -857,7 +868,9 @@
       <c r="A14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
       <c r="C14" s="4">
         <v>8</v>
       </c>
@@ -887,7 +900,9 @@
       <c r="A16" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4"/>
+      <c r="B16" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="C16" s="4">
         <v>14</v>
       </c>
@@ -934,8 +949,8 @@
       <c r="A19" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="4">
-        <v>0</v>
+      <c r="B19" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="C19" s="4">
         <v>11</v>

--- a/shortcuts.xlsx
+++ b/shortcuts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="87">
   <si>
     <t>P1+</t>
   </si>
@@ -107,9 +107,6 @@
     <t>u</t>
   </si>
   <si>
-    <t>Function</t>
-  </si>
-  <si>
     <t>() =&gt; document.getElementById("p1plus").click()</t>
   </si>
   <si>
@@ -231,6 +228,63 @@
   </si>
   <si>
     <t>8-LP</t>
+  </si>
+  <si>
+    <t>7-LP</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-gear"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-circle-info"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-magnifying-glass-minus"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-magnifying-glass-plus"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-eye"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-maximize"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-rotate-right"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-hourglass-half"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-circle-play"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-circle-stop"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-arrows-rotate"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-clock"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-circle-plus"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-circle-minus"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-trash-can"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>&lt;i class="fa-solid fa-right-to-bracket"&gt;&lt;/i&gt;</t>
+  </si>
+  <si>
+    <t>Icons</t>
+  </si>
+  <si>
+    <t>Function JS</t>
   </si>
 </sst>
 </file>
@@ -325,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -354,6 +408,29 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,22 +711,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.7109375" style="1" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>7</v>
@@ -661,322 +741,424 @@
         <v>8</v>
       </c>
       <c r="E1" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="F3" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
-        <v>4</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4">
         <v>6</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="4">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4">
         <v>5</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4">
         <v>7</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="4">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="4">
+        <v>4</v>
+      </c>
+      <c r="C9" s="4">
+        <v>12</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="F9" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="4">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4">
+        <v>3</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="4">
-        <v>2</v>
-      </c>
-      <c r="C6" s="4">
-        <v>10</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-      <c r="C7" s="4">
-        <v>12</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="4">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="B11" s="4">
         <v>7</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C11" s="4">
         <v>0</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="4">
-        <v>8</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B11" s="4">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B12" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C12" s="4">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="4">
+        <v>9</v>
       </c>
       <c r="C13" s="4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="F13" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="4">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>13</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="4">
+        <v>9</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>8</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="4">
-        <v>0</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="B18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="4">
+        <v>16</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
-        <v>16</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="B20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="4">
+        <v>14</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="4">
-        <v>14</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="4">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="4">
-        <v>15</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B24" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="4">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="4">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="3" t="s">
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>37</v>
+      <c r="F25" s="14" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
